--- a/ru/downloads/data-excel/8.6.1.xlsx
+++ b/ru/downloads/data-excel/8.6.1.xlsx
@@ -83,7 +83,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +306,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -419,7 +412,7 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,7 +646,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -687,10 +679,10 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -705,7 +697,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,7 +1032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1048,24 +1042,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="76" customFormat="1" ht="54" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1123,56 +1117,61 @@
       <c r="P4" s="78">
         <v>2019</v>
       </c>
-      <c r="Q4" s="79"/>
+      <c r="Q4" s="78">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="79">
         <v>16.7</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="79">
         <v>17</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="79">
         <v>17.8</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="80">
         <v>18.3</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="81">
         <v>17.399999999999999</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="82">
         <v>17.7</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="80">
         <v>22.1</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="80">
         <v>20.7</v>
       </c>
-      <c r="L5" s="82">
+      <c r="L5" s="81">
         <v>21.4</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="81">
         <v>20.399999999999999</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="80">
         <v>21</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="91">
         <v>20.5</v>
       </c>
-      <c r="P5" s="92">
+      <c r="P5" s="91">
         <v>21</v>
+      </c>
+      <c r="Q5" s="91">
+        <v>21.1</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="72" customFormat="1">
@@ -1185,44 +1184,47 @@
       <c r="C6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="83">
         <v>10.7</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="83">
         <v>12.8</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="83">
         <v>12.3</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="84">
         <v>11.5</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="84">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="86">
         <v>10.1</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="85">
         <v>14.3</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="84">
         <v>12.5</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="85">
         <v>13.6</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="85">
         <v>12.1</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="85">
         <v>12.3</v>
       </c>
-      <c r="O6" s="93">
+      <c r="O6" s="92">
         <v>12</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="92">
         <v>12.6</v>
+      </c>
+      <c r="Q6" s="92">
+        <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="72" customFormat="1" ht="15.75" thickBot="1">
@@ -1235,43 +1237,46 @@
       <c r="C7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="87">
         <v>22.8</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="87">
         <v>21.3</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="87">
         <v>23.5</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="88">
         <v>25.2</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="89">
         <v>25.2</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="90">
         <v>25.5</v>
       </c>
-      <c r="J7" s="89">
+      <c r="J7" s="88">
         <v>30</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="89">
         <v>29.2</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="88">
         <v>29.5</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="88">
         <v>29</v>
       </c>
-      <c r="N7" s="90">
+      <c r="N7" s="89">
         <v>30.1</v>
       </c>
-      <c r="O7" s="94">
+      <c r="O7" s="93">
         <v>29.4</v>
       </c>
-      <c r="P7" s="94">
+      <c r="P7" s="93">
+        <v>29.6</v>
+      </c>
+      <c r="Q7" s="93">
         <v>29.6</v>
       </c>
     </row>
@@ -1743,21 +1748,21 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2"/>
@@ -1998,21 +2003,21 @@
       <c r="O54" s="9"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="102"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="102"/>
-      <c r="O55" s="102"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2"/>
@@ -2644,21 +2649,21 @@
       <c r="O92" s="9"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="102"/>
-      <c r="B93" s="102"/>
-      <c r="C93" s="102"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
-      <c r="I93" s="102"/>
-      <c r="J93" s="102"/>
-      <c r="K93" s="102"/>
-      <c r="L93" s="102"/>
-      <c r="M93" s="102"/>
-      <c r="N93" s="102"/>
-      <c r="O93" s="102"/>
+      <c r="A93" s="101"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="101"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="101"/>
+      <c r="K93" s="101"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="101"/>
+      <c r="N93" s="101"/>
+      <c r="O93" s="101"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2"/>
@@ -2899,21 +2904,21 @@
       <c r="O107" s="9"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="102"/>
-      <c r="B108" s="102"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="102"/>
-      <c r="F108" s="102"/>
-      <c r="G108" s="102"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="102"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
-      <c r="M108" s="102"/>
-      <c r="N108" s="102"/>
-      <c r="O108" s="102"/>
+      <c r="A108" s="101"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="101"/>
+      <c r="I108" s="101"/>
+      <c r="J108" s="101"/>
+      <c r="K108" s="101"/>
+      <c r="L108" s="101"/>
+      <c r="M108" s="101"/>
+      <c r="N108" s="101"/>
+      <c r="O108" s="101"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2"/>
@@ -3154,21 +3159,21 @@
       <c r="O122" s="9"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="102"/>
-      <c r="B123" s="102"/>
-      <c r="C123" s="102"/>
-      <c r="D123" s="102"/>
-      <c r="E123" s="102"/>
-      <c r="F123" s="102"/>
-      <c r="G123" s="102"/>
-      <c r="H123" s="102"/>
-      <c r="I123" s="102"/>
-      <c r="J123" s="102"/>
-      <c r="K123" s="102"/>
-      <c r="L123" s="102"/>
-      <c r="M123" s="102"/>
-      <c r="N123" s="102"/>
-      <c r="O123" s="102"/>
+      <c r="A123" s="101"/>
+      <c r="B123" s="101"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="101"/>
+      <c r="F123" s="101"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="101"/>
+      <c r="I123" s="101"/>
+      <c r="J123" s="101"/>
+      <c r="K123" s="101"/>
+      <c r="L123" s="101"/>
+      <c r="M123" s="101"/>
+      <c r="N123" s="101"/>
+      <c r="O123" s="101"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2"/>
@@ -3545,21 +3550,21 @@
       <c r="O145" s="9"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="102"/>
-      <c r="B146" s="102"/>
-      <c r="C146" s="102"/>
-      <c r="D146" s="102"/>
-      <c r="E146" s="102"/>
-      <c r="F146" s="102"/>
-      <c r="G146" s="102"/>
-      <c r="H146" s="102"/>
-      <c r="I146" s="102"/>
-      <c r="J146" s="102"/>
-      <c r="K146" s="102"/>
-      <c r="L146" s="102"/>
-      <c r="M146" s="102"/>
-      <c r="N146" s="102"/>
-      <c r="O146" s="102"/>
+      <c r="A146" s="101"/>
+      <c r="B146" s="101"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="101"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="101"/>
+      <c r="G146" s="101"/>
+      <c r="H146" s="101"/>
+      <c r="I146" s="101"/>
+      <c r="J146" s="101"/>
+      <c r="K146" s="101"/>
+      <c r="L146" s="101"/>
+      <c r="M146" s="101"/>
+      <c r="N146" s="101"/>
+      <c r="O146" s="101"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2"/>
@@ -3800,21 +3805,21 @@
       <c r="O160" s="9"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="102"/>
-      <c r="B161" s="102"/>
-      <c r="C161" s="102"/>
-      <c r="D161" s="102"/>
-      <c r="E161" s="102"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="102"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="102"/>
-      <c r="J161" s="102"/>
-      <c r="K161" s="102"/>
-      <c r="L161" s="102"/>
-      <c r="M161" s="102"/>
-      <c r="N161" s="102"/>
-      <c r="O161" s="102"/>
+      <c r="A161" s="101"/>
+      <c r="B161" s="101"/>
+      <c r="C161" s="101"/>
+      <c r="D161" s="101"/>
+      <c r="E161" s="101"/>
+      <c r="F161" s="101"/>
+      <c r="G161" s="101"/>
+      <c r="H161" s="101"/>
+      <c r="I161" s="101"/>
+      <c r="J161" s="101"/>
+      <c r="K161" s="101"/>
+      <c r="L161" s="101"/>
+      <c r="M161" s="101"/>
+      <c r="N161" s="101"/>
+      <c r="O161" s="101"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2"/>

--- a/ru/downloads/data-excel/8.6.1.xlsx
+++ b/ru/downloads/data-excel/8.6.1.xlsx
@@ -1030,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,7 +1041,7 @@
     <col min="1" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="76" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:18" s="76" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
@@ -1063,12 +1063,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1120,11 @@
       <c r="Q4" s="78">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="78">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
@@ -1173,8 +1176,11 @@
       <c r="Q5" s="91">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="72" customFormat="1">
+      <c r="R5" s="91">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="72" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1226,8 +1232,11 @@
       <c r="Q6" s="92">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="72" customFormat="1" ht="15.75" thickBot="1">
+      <c r="R6" s="92">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="72" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1279,33 +1288,36 @@
       <c r="Q7" s="93">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="72" customFormat="1">
+      <c r="R7" s="93">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="61"/>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="60"/>
       <c r="B9" s="61"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="56"/>
       <c r="B10" s="41"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="52"/>
       <c r="B11" s="40"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -1322,7 +1334,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="67"/>
@@ -1339,7 +1351,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="68"/>
       <c r="B16" s="45"/>
       <c r="C16" s="69"/>

--- a/ru/downloads/data-excel/8.6.1.xlsx
+++ b/ru/downloads/data-excel/8.6.1.xlsx
@@ -412,7 +412,7 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,6 +706,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1030,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,7 +1045,7 @@
     <col min="1" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="76" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:19" s="76" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
@@ -1063,12 +1067,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1127,11 @@
       <c r="R4" s="78">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
@@ -1179,8 +1186,11 @@
       <c r="R5" s="91">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="72" customFormat="1">
+      <c r="S5" s="103">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="72" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1235,8 +1245,11 @@
       <c r="R6" s="92">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="72" customFormat="1" ht="15.75" thickBot="1">
+      <c r="S6" s="92">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1291,33 +1304,36 @@
       <c r="R7" s="93">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="72" customFormat="1">
+      <c r="S7" s="104">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="61"/>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="60"/>
       <c r="B9" s="61"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="56"/>
       <c r="B10" s="41"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="52"/>
       <c r="B11" s="40"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -1334,7 +1350,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="67"/>
@@ -1351,7 +1367,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="68"/>
       <c r="B16" s="45"/>
       <c r="C16" s="69"/>

--- a/ru/downloads/data-excel/8.6.1.xlsx
+++ b/ru/downloads/data-excel/8.6.1.xlsx
@@ -412,7 +412,7 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,10 +706,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1034,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,7 +1041,7 @@
     <col min="1" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="76" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:18" s="76" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
@@ -1067,12 +1063,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -1127,11 +1123,8 @@
       <c r="R4" s="78">
         <v>2021</v>
       </c>
-      <c r="S4" s="78">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
@@ -1186,11 +1179,8 @@
       <c r="R5" s="91">
         <v>19.100000000000001</v>
       </c>
-      <c r="S5" s="103">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="72" customFormat="1">
+    </row>
+    <row r="6" spans="1:18" s="72" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1245,11 +1235,8 @@
       <c r="R6" s="92">
         <v>11.3</v>
       </c>
-      <c r="S6" s="92">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1">
+    </row>
+    <row r="7" spans="1:18" s="72" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1304,36 +1291,33 @@
       <c r="R7" s="93">
         <v>27.3</v>
       </c>
-      <c r="S7" s="104">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="72" customFormat="1">
+    </row>
+    <row r="8" spans="1:18" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="61"/>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9" s="60"/>
       <c r="B9" s="61"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10" s="56"/>
       <c r="B10" s="41"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" s="52"/>
       <c r="B11" s="40"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -1350,7 +1334,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="67"/>
@@ -1367,7 +1351,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" s="68"/>
       <c r="B16" s="45"/>
       <c r="C16" s="69"/>

--- a/ru/downloads/data-excel/8.6.1.xlsx
+++ b/ru/downloads/data-excel/8.6.1.xlsx
@@ -1030,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="S4" sqref="S4:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,7 +1041,7 @@
     <col min="1" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="76" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:19" s="76" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="100" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
@@ -1063,12 +1063,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1123,11 @@
       <c r="R4" s="78">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
@@ -1179,8 +1182,11 @@
       <c r="R5" s="91">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="72" customFormat="1">
+      <c r="S5" s="91">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="72" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1235,8 +1241,11 @@
       <c r="R6" s="92">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="72" customFormat="1" ht="15.75" thickBot="1">
+      <c r="S6" s="92">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1291,33 +1300,36 @@
       <c r="R7" s="93">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="72" customFormat="1">
+      <c r="S7" s="93">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="61"/>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="60"/>
       <c r="B9" s="61"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="56"/>
       <c r="B10" s="41"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="52"/>
       <c r="B11" s="40"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -1334,7 +1346,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="67"/>
@@ -1351,7 +1363,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="68"/>
       <c r="B16" s="45"/>
       <c r="C16" s="69"/>

--- a/ru/downloads/data-excel/8.6.1.xlsx
+++ b/ru/downloads/data-excel/8.6.1.xlsx
@@ -61,9 +61,6 @@
     <t xml:space="preserve">8.6.1 Доля молодежи (от 15 до 24 лет), которая не работает, не учится и не приобретает профессиональных навыков </t>
   </si>
   <si>
-    <t xml:space="preserve">8.6.1 Алар иштебеген, окубаган жана кесиптик көндүмдөрдү үйрөнбөгөн   (15 жаштан 24 жашка чейинки ) жаштардын үлүшү  </t>
-  </si>
-  <si>
     <t>Кыргызская Республика</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.1 Иштебеген, окубаган жана кесиптик көндүмдөрдү үйрөнбөгөн (15 жаштан 24 жашка чейинки ) жаштардын үлүшү  </t>
   </si>
 </sst>
 </file>
@@ -697,14 +697,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1030,20 +1030,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:S7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="76" customFormat="1" ht="54" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>15</v>
+    <row r="1" spans="1:20" s="76" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="102" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>14</v>
@@ -1052,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
@@ -1063,12 +1061,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -1126,16 +1124,19 @@
       <c r="S4" s="78">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="78">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="98" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="79">
         <v>16.7</v>
@@ -1185,8 +1186,11 @@
       <c r="S5" s="91">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="72" customFormat="1">
+      <c r="T5" s="91">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="72" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1244,8 +1248,11 @@
       <c r="S6" s="92">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T6" s="92">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="72" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1303,33 +1310,36 @@
       <c r="S7" s="93">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="72" customFormat="1">
+      <c r="T7" s="93">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="61"/>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="60"/>
       <c r="B9" s="61"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="56"/>
       <c r="B10" s="41"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="52"/>
       <c r="B11" s="40"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -1346,7 +1356,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="67"/>
@@ -1363,7 +1373,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="68"/>
       <c r="B16" s="45"/>
       <c r="C16" s="69"/>
@@ -1772,21 +1782,21 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2"/>
@@ -2027,21 +2037,21 @@
       <c r="O54" s="9"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="101"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="101"/>
-      <c r="O55" s="101"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2"/>
@@ -2673,21 +2683,21 @@
       <c r="O92" s="9"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="101"/>
-      <c r="B93" s="101"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
-      <c r="H93" s="101"/>
-      <c r="I93" s="101"/>
-      <c r="J93" s="101"/>
-      <c r="K93" s="101"/>
-      <c r="L93" s="101"/>
-      <c r="M93" s="101"/>
-      <c r="N93" s="101"/>
-      <c r="O93" s="101"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="100"/>
+      <c r="E93" s="100"/>
+      <c r="F93" s="100"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="100"/>
+      <c r="I93" s="100"/>
+      <c r="J93" s="100"/>
+      <c r="K93" s="100"/>
+      <c r="L93" s="100"/>
+      <c r="M93" s="100"/>
+      <c r="N93" s="100"/>
+      <c r="O93" s="100"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2"/>
@@ -2928,21 +2938,21 @@
       <c r="O107" s="9"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="101"/>
-      <c r="B108" s="101"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="101"/>
-      <c r="H108" s="101"/>
-      <c r="I108" s="101"/>
-      <c r="J108" s="101"/>
-      <c r="K108" s="101"/>
-      <c r="L108" s="101"/>
-      <c r="M108" s="101"/>
-      <c r="N108" s="101"/>
-      <c r="O108" s="101"/>
+      <c r="A108" s="100"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="100"/>
+      <c r="F108" s="100"/>
+      <c r="G108" s="100"/>
+      <c r="H108" s="100"/>
+      <c r="I108" s="100"/>
+      <c r="J108" s="100"/>
+      <c r="K108" s="100"/>
+      <c r="L108" s="100"/>
+      <c r="M108" s="100"/>
+      <c r="N108" s="100"/>
+      <c r="O108" s="100"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2"/>
@@ -3183,21 +3193,21 @@
       <c r="O122" s="9"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="101"/>
-      <c r="B123" s="101"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
-      <c r="I123" s="101"/>
-      <c r="J123" s="101"/>
-      <c r="K123" s="101"/>
-      <c r="L123" s="101"/>
-      <c r="M123" s="101"/>
-      <c r="N123" s="101"/>
-      <c r="O123" s="101"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="100"/>
+      <c r="D123" s="100"/>
+      <c r="E123" s="100"/>
+      <c r="F123" s="100"/>
+      <c r="G123" s="100"/>
+      <c r="H123" s="100"/>
+      <c r="I123" s="100"/>
+      <c r="J123" s="100"/>
+      <c r="K123" s="100"/>
+      <c r="L123" s="100"/>
+      <c r="M123" s="100"/>
+      <c r="N123" s="100"/>
+      <c r="O123" s="100"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2"/>
@@ -3574,21 +3584,21 @@
       <c r="O145" s="9"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="101"/>
-      <c r="B146" s="101"/>
-      <c r="C146" s="101"/>
-      <c r="D146" s="101"/>
-      <c r="E146" s="101"/>
-      <c r="F146" s="101"/>
-      <c r="G146" s="101"/>
-      <c r="H146" s="101"/>
-      <c r="I146" s="101"/>
-      <c r="J146" s="101"/>
-      <c r="K146" s="101"/>
-      <c r="L146" s="101"/>
-      <c r="M146" s="101"/>
-      <c r="N146" s="101"/>
-      <c r="O146" s="101"/>
+      <c r="A146" s="100"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="100"/>
+      <c r="E146" s="100"/>
+      <c r="F146" s="100"/>
+      <c r="G146" s="100"/>
+      <c r="H146" s="100"/>
+      <c r="I146" s="100"/>
+      <c r="J146" s="100"/>
+      <c r="K146" s="100"/>
+      <c r="L146" s="100"/>
+      <c r="M146" s="100"/>
+      <c r="N146" s="100"/>
+      <c r="O146" s="100"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2"/>
@@ -3829,21 +3839,21 @@
       <c r="O160" s="9"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="101"/>
-      <c r="B161" s="101"/>
-      <c r="C161" s="101"/>
-      <c r="D161" s="101"/>
-      <c r="E161" s="101"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="101"/>
-      <c r="H161" s="101"/>
-      <c r="I161" s="101"/>
-      <c r="J161" s="101"/>
-      <c r="K161" s="101"/>
-      <c r="L161" s="101"/>
-      <c r="M161" s="101"/>
-      <c r="N161" s="101"/>
-      <c r="O161" s="101"/>
+      <c r="A161" s="100"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="100"/>
+      <c r="E161" s="100"/>
+      <c r="F161" s="100"/>
+      <c r="G161" s="100"/>
+      <c r="H161" s="100"/>
+      <c r="I161" s="100"/>
+      <c r="J161" s="100"/>
+      <c r="K161" s="100"/>
+      <c r="L161" s="100"/>
+      <c r="M161" s="100"/>
+      <c r="N161" s="100"/>
+      <c r="O161" s="100"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2"/>
